--- a/GAN/first_test_with_np_where.xlsx
+++ b/GAN/first_test_with_np_where.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbudig/Documents/Programmieren/python/attack-hypotheses-generation/GAN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5BED2E-9E3F-1143-88B4-E53B87657797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-56180" yWindow="-13540" windowWidth="48100" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +82,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +181,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +233,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K193"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -404,7 +467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -439,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -509,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -579,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -614,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -754,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -789,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -824,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -859,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -894,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -929,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -964,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -999,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1034,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1069,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1104,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1139,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1174,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1209,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1244,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1279,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1314,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1349,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1384,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1419,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1454,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1489,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1524,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1559,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1594,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1629,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1664,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1699,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1734,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1769,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1804,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1839,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1874,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1909,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1944,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1979,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2014,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2049,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2084,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2119,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2154,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2189,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2224,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2259,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2294,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2329,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2364,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2399,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2434,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2469,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2504,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2539,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2574,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2609,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2644,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2679,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2714,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2749,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2784,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2819,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2854,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2889,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2924,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2959,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2994,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3029,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3064,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3099,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3134,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3169,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3204,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3239,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3274,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3309,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3344,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3379,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3414,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3449,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3484,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3519,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3554,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3589,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3624,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3659,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3694,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3729,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3764,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3799,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3834,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3869,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3904,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3939,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3974,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4009,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4044,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4079,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4114,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4149,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4184,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4219,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4254,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4289,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4324,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4359,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4394,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4429,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4464,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4499,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4534,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4569,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4604,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4639,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4674,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4709,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4744,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4779,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4814,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4849,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4884,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4919,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4954,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4989,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5024,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5059,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5094,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5129,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5164,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5199,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5234,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5269,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5304,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5339,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5374,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5409,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5444,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5479,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5514,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5549,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5584,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5619,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5654,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5689,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5724,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5759,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5794,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5829,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5864,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5899,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5934,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5969,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6004,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6039,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6074,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6109,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6144,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6179,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6214,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6249,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6284,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6319,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6354,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6389,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6424,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6459,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6494,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6529,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6564,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6599,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6634,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6669,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6704,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6739,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6774,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6809,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6844,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6879,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6914,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6949,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6984,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7019,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7054,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7089,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7125,6 +7188,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K193">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>